--- a/data/2010-11.xlsx
+++ b/data/2010-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pacosun/Downloads/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11E6DA3-E522-4E4B-9AE3-13E7297D0A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D71B4C-C7AA-4E4C-B89E-5C41157FC048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="4860" windowWidth="30020" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="3360" windowWidth="30020" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2010-11" sheetId="1" r:id="rId1"/>
@@ -2090,9 +2090,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2451,13 +2452,13 @@
   <dimension ref="A1:AQ479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2:B479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
